--- a/DBA/Reportes BI/2021/Facturación/parametros_servidor.xlsx
+++ b/DBA/Reportes BI/2021/Facturación/parametros_servidor.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
   <si>
     <t>Parametros servidor</t>
   </si>
@@ -81,19 +81,34 @@
   </si>
   <si>
     <t>facoep1</t>
+  </si>
+  <si>
+    <t>10.22.0.142</t>
+  </si>
+  <si>
+    <t>serveradmin</t>
+  </si>
+  <si>
+    <t>Facoep</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -116,9 +131,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -137,8 +153,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:C11" totalsRowShown="0">
-  <autoFilter ref="A1:C11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:C15" totalsRowShown="0">
+  <autoFilter ref="A1:C15"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Parametros servidor"/>
     <tableColumn id="2" name="Valor"/>
@@ -411,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,7 +458,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -453,7 +469,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -464,7 +480,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -475,7 +491,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -541,14 +557,58 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>